--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H2">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N2">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O2">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P2">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q2">
-        <v>23.56686553104356</v>
+        <v>28.05981237544833</v>
       </c>
       <c r="R2">
-        <v>23.56686553104356</v>
+        <v>252.538311379035</v>
       </c>
       <c r="S2">
-        <v>0.00120825271128748</v>
+        <v>0.001331993172914685</v>
       </c>
       <c r="T2">
-        <v>0.00120825271128748</v>
+        <v>0.001331993172914685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H3">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N3">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O3">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P3">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q3">
-        <v>1469.37906755458</v>
+        <v>1631.500934893408</v>
       </c>
       <c r="R3">
-        <v>1469.37906755458</v>
+        <v>14683.50841404068</v>
       </c>
       <c r="S3">
-        <v>0.07533378759866315</v>
+        <v>0.07744699350817466</v>
       </c>
       <c r="T3">
-        <v>0.07533378759866315</v>
+        <v>0.0774469935081747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H4">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I4">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J4">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N4">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O4">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P4">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q4">
-        <v>655.5674800902081</v>
+        <v>852.5014284219401</v>
       </c>
       <c r="R4">
-        <v>655.5674800902081</v>
+        <v>7672.512855797461</v>
       </c>
       <c r="S4">
-        <v>0.03361037488025336</v>
+        <v>0.04046805685527675</v>
       </c>
       <c r="T4">
-        <v>0.03361037488025336</v>
+        <v>0.04046805685527676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H5">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I5">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J5">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N5">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O5">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P5">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q5">
-        <v>477.2452224363348</v>
+        <v>533.5757786543189</v>
       </c>
       <c r="R5">
-        <v>477.2452224363348</v>
+        <v>4802.18200788887</v>
       </c>
       <c r="S5">
-        <v>0.02446794772932896</v>
+        <v>0.02532872582647959</v>
       </c>
       <c r="T5">
-        <v>0.02446794772932896</v>
+        <v>0.0253287258264796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H6">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J6">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N6">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O6">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P6">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q6">
-        <v>121.5995311602142</v>
+        <v>132.1414234136837</v>
       </c>
       <c r="R6">
-        <v>121.5995311602142</v>
+        <v>1189.272810723153</v>
       </c>
       <c r="S6">
-        <v>0.006234302267396583</v>
+        <v>0.006272724546093587</v>
       </c>
       <c r="T6">
-        <v>0.006234302267396583</v>
+        <v>0.006272724546093587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H7">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J7">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N7">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O7">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P7">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q7">
-        <v>7581.653380077556</v>
+        <v>7683.189500803852</v>
       </c>
       <c r="R7">
-        <v>7581.653380077556</v>
+        <v>69148.70550723467</v>
       </c>
       <c r="S7">
-        <v>0.3887047787688956</v>
+        <v>0.3647193297071005</v>
       </c>
       <c r="T7">
-        <v>0.3887047787688956</v>
+        <v>0.3647193297071005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H8">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I8">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J8">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N8">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O8">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P8">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q8">
-        <v>3382.575341546596</v>
+        <v>4014.665198276252</v>
       </c>
       <c r="R8">
-        <v>3382.575341546596</v>
+        <v>36131.98678448627</v>
       </c>
       <c r="S8">
-        <v>0.1734216976022638</v>
+        <v>0.1905752812631452</v>
       </c>
       <c r="T8">
-        <v>0.1734216976022638</v>
+        <v>0.1905752812631452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H9">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I9">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J9">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N9">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O9">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P9">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q9">
-        <v>2462.474070650867</v>
+        <v>2512.756035109438</v>
       </c>
       <c r="R9">
-        <v>2462.474070650867</v>
+        <v>22614.80431598494</v>
       </c>
       <c r="S9">
-        <v>0.1262489052020861</v>
+        <v>0.1192799808916209</v>
       </c>
       <c r="T9">
-        <v>0.1262489052020861</v>
+        <v>0.1192799808916209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H10">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I10">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J10">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N10">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O10">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P10">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q10">
-        <v>26.15263246615932</v>
+        <v>29.07590813568</v>
       </c>
       <c r="R10">
-        <v>26.15263246615932</v>
+        <v>261.68317322112</v>
       </c>
       <c r="S10">
-        <v>0.001340822734483636</v>
+        <v>0.001380227017016949</v>
       </c>
       <c r="T10">
-        <v>0.001340822734483636</v>
+        <v>0.001380227017016949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H11">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I11">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J11">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N11">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O11">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P11">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q11">
-        <v>1630.599990338265</v>
+        <v>1690.5804882624</v>
       </c>
       <c r="R11">
-        <v>1630.599990338265</v>
+        <v>15215.2243943616</v>
       </c>
       <c r="S11">
-        <v>0.08359944417539633</v>
+        <v>0.08025148701987043</v>
       </c>
       <c r="T11">
-        <v>0.08359944417539633</v>
+        <v>0.08025148701987046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H12">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I12">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J12">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N12">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O12">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P12">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q12">
-        <v>727.496634670459</v>
+        <v>883.37202283008</v>
       </c>
       <c r="R12">
-        <v>727.496634670459</v>
+        <v>7950.348205470721</v>
       </c>
       <c r="S12">
-        <v>0.03729812011424401</v>
+        <v>0.04193347723818135</v>
       </c>
       <c r="T12">
-        <v>0.03729812011424401</v>
+        <v>0.04193347723818135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H13">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I13">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J13">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N13">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O13">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P13">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q13">
-        <v>529.6087798424858</v>
+        <v>552.89750750976</v>
       </c>
       <c r="R13">
-        <v>529.6087798424858</v>
+        <v>4976.077567587839</v>
       </c>
       <c r="S13">
-        <v>0.02715258180276138</v>
+        <v>0.0262459240806944</v>
       </c>
       <c r="T13">
-        <v>0.02715258180276138</v>
+        <v>0.02624592408069441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H14">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I14">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J14">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N14">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O14">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P14">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q14">
-        <v>3.74264071142926</v>
+        <v>4.806639956191333</v>
       </c>
       <c r="R14">
-        <v>3.74264071142926</v>
+        <v>43.259759605722</v>
       </c>
       <c r="S14">
-        <v>0.0001918819361447371</v>
+        <v>0.0002281701502718441</v>
       </c>
       <c r="T14">
-        <v>0.0001918819361447371</v>
+        <v>0.0002281701502718441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H15">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I15">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J15">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N15">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O15">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P15">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q15">
-        <v>233.3512664850437</v>
+        <v>279.4757668830233</v>
       </c>
       <c r="R15">
-        <v>233.3512664850437</v>
+        <v>2515.28190194721</v>
       </c>
       <c r="S15">
-        <v>0.01196371660208801</v>
+        <v>0.01326665369327279</v>
       </c>
       <c r="T15">
-        <v>0.01196371660208801</v>
+        <v>0.01326665369327279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H16">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I16">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J16">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N16">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O16">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P16">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q16">
-        <v>104.1103042253434</v>
+        <v>146.033315324248</v>
       </c>
       <c r="R16">
-        <v>104.1103042253434</v>
+        <v>1314.299837918232</v>
       </c>
       <c r="S16">
-        <v>0.005337644804207673</v>
+        <v>0.006932169624918524</v>
       </c>
       <c r="T16">
-        <v>0.005337644804207673</v>
+        <v>0.006932169624918524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H17">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I17">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J17">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N17">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O17">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P17">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q17">
-        <v>75.7910463940364</v>
+        <v>91.40141862031155</v>
       </c>
       <c r="R17">
-        <v>75.7910463940364</v>
+        <v>822.6127675828039</v>
       </c>
       <c r="S17">
-        <v>0.003885741070499276</v>
+        <v>0.004338805404967607</v>
       </c>
       <c r="T17">
-        <v>0.003885741070499276</v>
+        <v>0.004338805404967607</v>
       </c>
     </row>
   </sheetData>
